--- a/www/IndicatorsPerCountry/Guatemala_GDPperCapita_TerritorialRef_1946_2012_CCode_320.xlsx
+++ b/www/IndicatorsPerCountry/Guatemala_GDPperCapita_TerritorialRef_1946_2012_CCode_320.xlsx
@@ -333,13 +333,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Guatemala_GDPperCapita_TerritorialRef_1946_2012_CCode_320.xlsx
+++ b/www/IndicatorsPerCountry/Guatemala_GDPperCapita_TerritorialRef_1946_2012_CCode_320.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="115">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,274 +36,292 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>1272</t>
-  </si>
-  <si>
-    <t>1382</t>
-  </si>
-  <si>
-    <t>1291</t>
-  </si>
-  <si>
-    <t>1405</t>
-  </si>
-  <si>
-    <t>1504</t>
-  </si>
-  <si>
-    <t>1460</t>
-  </si>
-  <si>
-    <t>1539</t>
-  </si>
-  <si>
-    <t>1557</t>
-  </si>
-  <si>
-    <t>1720</t>
-  </si>
-  <si>
-    <t>1776</t>
-  </si>
-  <si>
-    <t>1620</t>
-  </si>
-  <si>
-    <t>1380</t>
-  </si>
-  <si>
-    <t>1358</t>
-  </si>
-  <si>
-    <t>1512</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2224</t>
-  </si>
-  <si>
-    <t>2457</t>
+    <t>2028</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2058</t>
+  </si>
+  <si>
+    <t>2240</t>
+  </si>
+  <si>
+    <t>2397</t>
+  </si>
+  <si>
+    <t>2327</t>
+  </si>
+  <si>
+    <t>2453</t>
+  </si>
+  <si>
+    <t>2482</t>
   </si>
   <si>
     <t>2742</t>
   </si>
   <si>
-    <t>2825</t>
-  </si>
-  <si>
-    <t>2800</t>
-  </si>
-  <si>
-    <t>1835</t>
-  </si>
-  <si>
-    <t>1741</t>
-  </si>
-  <si>
-    <t>1732</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>1975</t>
-  </si>
-  <si>
-    <t>1988</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2085</t>
-  </si>
-  <si>
-    <t>2047</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
-    <t>2032</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>1989</t>
-  </si>
-  <si>
-    <t>2100</t>
-  </si>
-  <si>
-    <t>2148</t>
-  </si>
-  <si>
-    <t>2177</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2193</t>
-  </si>
-  <si>
-    <t>2216</t>
-  </si>
-  <si>
-    <t>2223</t>
-  </si>
-  <si>
-    <t>2360</t>
-  </si>
-  <si>
-    <t>2393</t>
-  </si>
-  <si>
-    <t>2447</t>
-  </si>
-  <si>
-    <t>2530</t>
-  </si>
-  <si>
-    <t>2581</t>
-  </si>
-  <si>
-    <t>2751</t>
-  </si>
-  <si>
-    <t>2821</t>
-  </si>
-  <si>
-    <t>2919</t>
-  </si>
-  <si>
-    <t>3012</t>
-  </si>
-  <si>
-    <t>3160</t>
-  </si>
-  <si>
-    <t>3297</t>
-  </si>
-  <si>
-    <t>3426</t>
-  </si>
-  <si>
-    <t>3412</t>
-  </si>
-  <si>
-    <t>3579</t>
-  </si>
-  <si>
-    <t>3767</t>
-  </si>
-  <si>
-    <t>3862</t>
-  </si>
-  <si>
-    <t>3951</t>
-  </si>
-  <si>
-    <t>4005</t>
-  </si>
-  <si>
-    <t>3925</t>
-  </si>
-  <si>
-    <t>3703</t>
-  </si>
-  <si>
-    <t>3504</t>
-  </si>
-  <si>
-    <t>3431</t>
-  </si>
-  <si>
-    <t>3320</t>
-  </si>
-  <si>
-    <t>3222</t>
-  </si>
-  <si>
-    <t>3198</t>
+    <t>2831</t>
+  </si>
+  <si>
+    <t>2582</t>
+  </si>
+  <si>
+    <t>2200</t>
+  </si>
+  <si>
+    <t>2165</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2729</t>
+  </si>
+  <si>
+    <t>3674</t>
+  </si>
+  <si>
+    <t>3516</t>
+  </si>
+  <si>
+    <t>3545</t>
+  </si>
+  <si>
+    <t>3916</t>
+  </si>
+  <si>
+    <t>4371</t>
+  </si>
+  <si>
+    <t>4503</t>
+  </si>
+  <si>
+    <t>4463</t>
+  </si>
+  <si>
+    <t>2925</t>
+  </si>
+  <si>
+    <t>2775</t>
+  </si>
+  <si>
+    <t>2761</t>
   </si>
   <si>
     <t>3191</t>
   </si>
   <si>
-    <t>3227</t>
-  </si>
-  <si>
-    <t>3240.01784519</t>
-  </si>
-  <si>
-    <t>3268.25133415</t>
-  </si>
-  <si>
-    <t>3370.11064793</t>
-  </si>
-  <si>
-    <t>3445.19161304</t>
-  </si>
-  <si>
-    <t>3490.23068428</t>
-  </si>
-  <si>
-    <t>3572.11177944</t>
-  </si>
-  <si>
-    <t>3591.7333271</t>
-  </si>
-  <si>
-    <t>3666.98708636</t>
-  </si>
-  <si>
-    <t>3773.89183354</t>
-  </si>
-  <si>
-    <t>3848.85963553</t>
-  </si>
-  <si>
-    <t>3922.43256555</t>
-  </si>
-  <si>
-    <t>3942.99201323</t>
-  </si>
-  <si>
-    <t>4016.32537429</t>
-  </si>
-  <si>
-    <t>4041.22025041</t>
-  </si>
-  <si>
-    <t>4093.62191786</t>
-  </si>
-  <si>
-    <t>4142.90709471</t>
-  </si>
-  <si>
-    <t>4270.37093238</t>
-  </si>
-  <si>
-    <t>4442.08032996</t>
-  </si>
-  <si>
-    <t>4491.1177165</t>
-  </si>
-  <si>
-    <t>4422.3954183</t>
-  </si>
-  <si>
-    <t>4453.58391041</t>
+    <t>3148</t>
+  </si>
+  <si>
+    <t>3169</t>
+  </si>
+  <si>
+    <t>3365</t>
+  </si>
+  <si>
+    <t>3323</t>
+  </si>
+  <si>
+    <t>3263</t>
+  </si>
+  <si>
+    <t>3226</t>
+  </si>
+  <si>
+    <t>3239</t>
+  </si>
+  <si>
+    <t>3194</t>
+  </si>
+  <si>
+    <t>3170</t>
+  </si>
+  <si>
+    <t>3347</t>
+  </si>
+  <si>
+    <t>3424</t>
+  </si>
+  <si>
+    <t>3470</t>
+  </si>
+  <si>
+    <t>3524</t>
+  </si>
+  <si>
+    <t>3496</t>
+  </si>
+  <si>
+    <t>3532</t>
+  </si>
+  <si>
+    <t>3543</t>
+  </si>
+  <si>
+    <t>3762</t>
+  </si>
+  <si>
+    <t>3814</t>
+  </si>
+  <si>
+    <t>3900</t>
+  </si>
+  <si>
+    <t>4033</t>
+  </si>
+  <si>
+    <t>4114</t>
+  </si>
+  <si>
+    <t>4385</t>
+  </si>
+  <si>
+    <t>4497</t>
+  </si>
+  <si>
+    <t>4653</t>
+  </si>
+  <si>
+    <t>4801</t>
+  </si>
+  <si>
+    <t>5037</t>
+  </si>
+  <si>
+    <t>5255</t>
+  </si>
+  <si>
+    <t>5461</t>
+  </si>
+  <si>
+    <t>5439</t>
+  </si>
+  <si>
+    <t>5705</t>
+  </si>
+  <si>
+    <t>6005</t>
+  </si>
+  <si>
+    <t>6156</t>
+  </si>
+  <si>
+    <t>6298</t>
+  </si>
+  <si>
+    <t>6384</t>
+  </si>
+  <si>
+    <t>6256</t>
+  </si>
+  <si>
+    <t>5903</t>
+  </si>
+  <si>
+    <t>5585</t>
+  </si>
+  <si>
+    <t>5469</t>
+  </si>
+  <si>
+    <t>5292</t>
+  </si>
+  <si>
+    <t>5136</t>
+  </si>
+  <si>
+    <t>5098</t>
+  </si>
+  <si>
+    <t>5086</t>
+  </si>
+  <si>
+    <t>5144</t>
+  </si>
+  <si>
+    <t>5165</t>
+  </si>
+  <si>
+    <t>5166.54986601267</t>
+  </si>
+  <si>
+    <t>5303.59854742543</t>
+  </si>
+  <si>
+    <t>5382.9787121035</t>
+  </si>
+  <si>
+    <t>5414.54115356924</t>
+  </si>
+  <si>
+    <t>5501.04222678237</t>
+  </si>
+  <si>
+    <t>5511.90470568081</t>
+  </si>
+  <si>
+    <t>5601.20750520503</t>
+  </si>
+  <si>
+    <t>5730.64575362661</t>
+  </si>
+  <si>
+    <t>5824.88328486933</t>
+  </si>
+  <si>
+    <t>5860.2718525717</t>
+  </si>
+  <si>
+    <t>5882.71970593542</t>
+  </si>
+  <si>
+    <t>5980.24200772415</t>
+  </si>
+  <si>
+    <t>6004.14467312046</t>
+  </si>
+  <si>
+    <t>6070.19423096165</t>
+  </si>
+  <si>
+    <t>6130.48233756792</t>
+  </si>
+  <si>
+    <t>6305.81859145986</t>
+  </si>
+  <si>
+    <t>6545.75235326108</t>
+  </si>
+  <si>
+    <t>6604.68242304307</t>
+  </si>
+  <si>
+    <t>6488.64623816622</t>
+  </si>
+  <si>
+    <t>6526.45756959102</t>
+  </si>
+  <si>
+    <t>6650</t>
+  </si>
+  <si>
+    <t>6714</t>
+  </si>
+  <si>
+    <t>6829</t>
+  </si>
+  <si>
+    <t>6981</t>
+  </si>
+  <si>
+    <t>7138</t>
+  </si>
+  <si>
+    <t>7221</t>
   </si>
   <si>
     <t>Description</t>
@@ -1954,6 +1972,108 @@
         <v>96</v>
       </c>
     </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E93" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E94" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E95" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E96" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E97" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E98" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1969,50 +2089,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
